--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AR2_50_9_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AR2_50_9_matched_errors_first.xlsx
@@ -994,6 +994,9 @@
       <c r="J15">
         <v>0.4864000199535451</v>
       </c>
+      <c r="K15">
+        <v>0.2305062539156956</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1023,8 +1026,11 @@
       <c r="I16">
         <v>0.4905753488922937</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16">
+        <v>0.2193215401759246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1049,8 +1055,11 @@
       <c r="H17">
         <v>0.4747295398651078</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0.2109873117084238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1072,8 +1081,11 @@
       <c r="G18">
         <v>0.4434018934814807</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18">
+        <v>0.2077622620068982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1092,8 +1104,11 @@
       <c r="F19">
         <v>0.455790019309198</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19">
+        <v>0.1868984584576193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1109,8 +1124,11 @@
       <c r="E20">
         <v>0.4708952909610505</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20">
+        <v>0.2101374940836094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1123,8 +1141,11 @@
       <c r="D21">
         <v>0.4079223719710875</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="E21">
+        <v>0.2201756597651073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1134,18 +1155,27 @@
       <c r="C22">
         <v>0.5072404221531239</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="D22">
+        <v>0.1085991175498651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
         <v>0.5513001133925729</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="C23">
+        <v>0.130019622424466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.3662627537369125</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AR2_50_9_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AR2_50_9_matched_errors_first.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.18989627706783</v>
+        <v>10.1225990960284</v>
       </c>
       <c r="C2">
-        <v>10.16349548557</v>
+        <v>-7.750390181979499</v>
       </c>
       <c r="D2">
-        <v>-7.724356307055293</v>
+        <v>0.4625532265844802</v>
       </c>
       <c r="E2">
-        <v>0.4743409654747825</v>
+        <v>1.114035804318275</v>
       </c>
       <c r="F2">
-        <v>1.119950557408814</v>
+        <v>-0.6809154673822229</v>
       </c>
       <c r="G2">
-        <v>-0.6780455854739627</v>
+        <v>-1.636980281981076</v>
       </c>
       <c r="H2">
-        <v>-1.635572794074753</v>
+        <v>1.198145430806236</v>
       </c>
       <c r="I2">
-        <v>1.198833335909301</v>
+        <v>-0.4702713277968628</v>
       </c>
       <c r="J2">
-        <v>-0.4699347444161387</v>
+        <v>0.550237693327104</v>
       </c>
       <c r="K2">
-        <v>0.5504023208997705</v>
+        <v>-1.163387135999541</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>9.247944187619927</v>
+        <v>-8.665941479929575</v>
       </c>
       <c r="C3">
-        <v>-8.279795221705264</v>
+        <v>-0.09288568806548997</v>
       </c>
       <c r="D3">
-        <v>0.1554212552770169</v>
+        <v>0.79511609412051</v>
       </c>
       <c r="E3">
-        <v>0.9107481729412195</v>
+        <v>-0.8901178518498177</v>
       </c>
       <c r="F3">
-        <v>-0.8312630172827695</v>
+        <v>-1.790197713789883</v>
       </c>
       <c r="G3">
-        <v>-1.761027663680778</v>
+        <v>1.072690561200211</v>
       </c>
       <c r="H3">
-        <v>1.087260944115845</v>
+        <v>-0.5818437195903187</v>
       </c>
       <c r="I3">
-        <v>-0.5745824983500689</v>
+        <v>0.4455899393931738</v>
       </c>
       <c r="J3">
-        <v>0.4492110423354971</v>
+        <v>-1.264578414563814</v>
       </c>
       <c r="K3">
-        <v>-1.262772962148411</v>
+        <v>1.565582411450561</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-15.44502510429221</v>
+        <v>-7.258115570652438</v>
       </c>
       <c r="C4">
-        <v>-5.619233542269922</v>
+        <v>-4.979538703426429</v>
       </c>
       <c r="D4">
-        <v>-3.731309787990799</v>
+        <v>-5.532175812781836</v>
       </c>
       <c r="E4">
-        <v>-4.581790845914914</v>
+        <v>-5.540725542422027</v>
       </c>
       <c r="F4">
-        <v>-4.817112832495161</v>
+        <v>-1.983394607614172</v>
       </c>
       <c r="G4">
-        <v>-1.4324438270493</v>
+        <v>-3.101548490755464</v>
       </c>
       <c r="H4">
-        <v>-2.682060609296908</v>
+        <v>-1.661888171553665</v>
       </c>
       <c r="I4">
-        <v>-1.342494699581906</v>
+        <v>-3.056284156481218</v>
       </c>
       <c r="J4">
-        <v>-2.813101470050608</v>
+        <v>0.01525390354836409</v>
       </c>
       <c r="K4">
-        <v>0.2004105337528701</v>
+        <v>-2.034922066113249</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-3.939052395700697</v>
+        <v>-3.299357556857204</v>
       </c>
       <c r="C5">
-        <v>3.684734974517905</v>
+        <v>1.883868949726868</v>
       </c>
       <c r="D5">
-        <v>-2.333734529689821</v>
+        <v>-3.292669226196934</v>
       </c>
       <c r="E5">
-        <v>-0.835751817305987</v>
+        <v>1.997966407575002</v>
       </c>
       <c r="F5">
-        <v>0.5457380748606747</v>
+        <v>-1.123366588845489</v>
       </c>
       <c r="G5">
-        <v>-0.2700543632265874</v>
+        <v>0.7501180745166554</v>
       </c>
       <c r="H5">
-        <v>0.2475156789190572</v>
+        <v>-1.466273777980254</v>
       </c>
       <c r="I5">
-        <v>-1.170528923740809</v>
+        <v>1.657826449858163</v>
       </c>
       <c r="J5">
-        <v>1.483733173460192</v>
+        <v>-0.7515994264059269</v>
       </c>
       <c r="K5">
-        <v>-0.6491341121382845</v>
+        <v>0.7022009457793779</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.04247155220008958</v>
+        <v>-1.843337576991127</v>
       </c>
       <c r="C6">
-        <v>-0.470863874926198</v>
+        <v>-1.429798571433311</v>
       </c>
       <c r="D6">
-        <v>-1.596660741476967</v>
+        <v>1.237057483404022</v>
       </c>
       <c r="E6">
-        <v>1.095969070482927</v>
+        <v>-0.5731355932232373</v>
       </c>
       <c r="F6">
-        <v>-0.517307604149827</v>
+        <v>0.5028648335934157</v>
       </c>
       <c r="G6">
-        <v>0.5080998195400784</v>
+        <v>-1.205689637359233</v>
       </c>
       <c r="H6">
-        <v>-1.214309943970497</v>
+        <v>1.614045429628475</v>
       </c>
       <c r="I6">
-        <v>1.615420670929393</v>
+        <v>-0.6199119289367258</v>
       </c>
       <c r="J6">
-        <v>-0.6191041902945924</v>
+        <v>0.73223086762307</v>
       </c>
       <c r="K6">
-        <v>0.7318558435072805</v>
+        <v>0.1104179136903787</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.062631421304428</v>
+        <v>-1.021566117811541</v>
       </c>
       <c r="C7">
-        <v>-1.345037697590573</v>
+        <v>1.488680527290416</v>
       </c>
       <c r="D7">
-        <v>1.014063016659791</v>
+        <v>-0.6550416470463725</v>
       </c>
       <c r="E7">
-        <v>-0.4422155547685414</v>
+        <v>0.5779568829747013</v>
       </c>
       <c r="F7">
-        <v>0.6140069800538022</v>
+        <v>-1.099782476845509</v>
       </c>
       <c r="G7">
-        <v>-1.155893297811842</v>
+        <v>1.67246207578713</v>
       </c>
       <c r="H7">
-        <v>1.681859354759485</v>
+        <v>-0.5534732451066342</v>
       </c>
       <c r="I7">
-        <v>-0.5444222316837559</v>
+        <v>0.8069128262339065</v>
       </c>
       <c r="J7">
-        <v>0.8021691354082593</v>
+        <v>0.1807312055913575</v>
       </c>
       <c r="K7">
-        <v>0.1802518522544978</v>
+        <v>0.6808125494453288</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1.450536909439388</v>
+        <v>1.383181315441601</v>
       </c>
       <c r="C8">
-        <v>0.8879577326944336</v>
+        <v>-0.7811469310117304</v>
       </c>
       <c r="D8">
-        <v>-0.2739674861353097</v>
+        <v>0.746204951607933</v>
       </c>
       <c r="E8">
-        <v>0.6746710726576846</v>
+        <v>-1.039118384241627</v>
       </c>
       <c r="F8">
-        <v>-1.144760458437209</v>
+        <v>1.683594915161763</v>
       </c>
       <c r="G8">
-        <v>1.744722106086416</v>
+        <v>-0.4906104937797037</v>
       </c>
       <c r="H8">
-        <v>-0.4870707038900127</v>
+        <v>0.8642643540276498</v>
       </c>
       <c r="I8">
-        <v>0.8466743124126384</v>
+        <v>0.2252363825957365</v>
       </c>
       <c r="J8">
-        <v>0.2313257232809164</v>
+        <v>0.7318864204717475</v>
       </c>
       <c r="K8">
-        <v>0.7341089884009673</v>
+        <v>0.06620091605482592</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.2835171128466949</v>
+        <v>-1.385587550859469</v>
       </c>
       <c r="C9">
-        <v>-0.3381708634900031</v>
+        <v>0.6820015742532396</v>
       </c>
       <c r="D9">
-        <v>0.9662183807149013</v>
+        <v>-0.7475710761844102</v>
       </c>
       <c r="E9">
-        <v>-1.182467334523142</v>
+        <v>1.645888039075829</v>
       </c>
       <c r="F9">
-        <v>1.736138086012954</v>
+        <v>-0.4991945138531648</v>
       </c>
       <c r="G9">
-        <v>-0.4033296262926443</v>
+        <v>0.948005431625018</v>
       </c>
       <c r="H9">
-        <v>0.8815014573406833</v>
+        <v>0.2600635275237815</v>
       </c>
       <c r="I9">
-        <v>0.2578901063332134</v>
+        <v>0.7584508035240445</v>
       </c>
       <c r="J9">
-        <v>0.7796078291475662</v>
+        <v>0.1116997568014248</v>
       </c>
       <c r="K9">
-        <v>0.1037568572541728</v>
+        <v>0.5327578324921759</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.4258116923289144</v>
+        <v>0.5943607454143283</v>
       </c>
       <c r="C10">
-        <v>0.9137991786852327</v>
+        <v>-0.7999902782140788</v>
       </c>
       <c r="D10">
-        <v>-1.123820937538137</v>
+        <v>1.704534436060835</v>
       </c>
       <c r="E10">
-        <v>1.741067231350056</v>
+        <v>-0.4942653685160635</v>
       </c>
       <c r="F10">
-        <v>-0.4144229093415396</v>
+        <v>0.9369121485761228</v>
       </c>
       <c r="G10">
-        <v>0.8942681565657697</v>
+        <v>0.272830226748868</v>
       </c>
       <c r="H10">
-        <v>0.2666196653805725</v>
+        <v>0.7671803625714035</v>
       </c>
       <c r="I10">
-        <v>0.782109773296418</v>
+        <v>0.1142017009502766</v>
       </c>
       <c r="J10">
-        <v>0.1100327947258539</v>
+        <v>0.539033769963857</v>
       </c>
       <c r="K10">
-        <v>0.5363482025840406</v>
+        <v>0.5940197511622507</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.9362271583182413</v>
+        <v>-0.7775622985810702</v>
       </c>
       <c r="C11">
-        <v>-1.121217397975688</v>
+        <v>1.707137975623284</v>
       </c>
       <c r="D11">
-        <v>1.718999545696041</v>
+        <v>-0.5163330541700787</v>
       </c>
       <c r="E11">
-        <v>-0.4204048896458946</v>
+        <v>0.9309301682717679</v>
       </c>
       <c r="F11">
-        <v>0.8889249063833586</v>
+        <v>0.2674869765664569</v>
       </c>
       <c r="G11">
-        <v>0.2562511320102062</v>
+        <v>0.7568118292010373</v>
       </c>
       <c r="H11">
-        <v>0.7736324511727942</v>
+        <v>0.1057243788266528</v>
       </c>
       <c r="I11">
-        <v>0.1022604864190431</v>
+        <v>0.5312614616570462</v>
       </c>
       <c r="J11">
-        <v>0.527724229051072</v>
+        <v>0.5853957776292821</v>
       </c>
       <c r="K11">
-        <v>0.5878314504560218</v>
+        <v>0.7117978212943072</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1.099792826518468</v>
+        <v>1.728562547080504</v>
       </c>
       <c r="C12">
-        <v>1.839177394495253</v>
+        <v>-0.3961552053708663</v>
       </c>
       <c r="D12">
-        <v>-0.5095992340596777</v>
+        <v>0.8417358238579847</v>
       </c>
       <c r="E12">
-        <v>0.8591979025347809</v>
+        <v>0.2377599727178791</v>
       </c>
       <c r="F12">
-        <v>0.2648772520401163</v>
+        <v>0.7654379492309473</v>
       </c>
       <c r="G12">
-        <v>0.747692277747359</v>
+        <v>0.07978420540121761</v>
       </c>
       <c r="H12">
-        <v>0.07948192339081561</v>
+        <v>0.5084828986288187</v>
       </c>
       <c r="I12">
-        <v>0.5141061939024542</v>
+        <v>0.5717777424806643</v>
       </c>
       <c r="J12">
-        <v>0.569310653270846</v>
+        <v>0.6932770241091315</v>
       </c>
       <c r="K12">
-        <v>0.6926620895998143</v>
+        <v>-0.2007560336349775</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1.796856762174863</v>
+        <v>-0.4384758376912558</v>
       </c>
       <c r="C13">
-        <v>-0.5388037079154109</v>
+        <v>0.8125313500022515</v>
       </c>
       <c r="D13">
-        <v>0.8561773027298597</v>
+        <v>0.2347393729129579</v>
       </c>
       <c r="E13">
-        <v>0.2460159684286359</v>
+        <v>0.7465766656194669</v>
       </c>
       <c r="F13">
-        <v>0.7273611466821548</v>
+        <v>0.05945307433601332</v>
       </c>
       <c r="G13">
-        <v>0.06495176795656782</v>
+        <v>0.4939527431945709</v>
       </c>
       <c r="H13">
-        <v>0.4974651484101862</v>
+        <v>0.5551366969883963</v>
       </c>
       <c r="I13">
-        <v>0.5517268078420958</v>
+        <v>0.6756931786803813</v>
       </c>
       <c r="J13">
-        <v>0.6761882060697715</v>
+        <v>-0.2172299171650203</v>
       </c>
       <c r="K13">
-        <v>-0.2163793123768544</v>
+        <v>0.553751414566908</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.1986059672975008</v>
+        <v>1.152729090620161</v>
       </c>
       <c r="C14">
-        <v>0.9315483645137967</v>
+        <v>0.310110434696895</v>
       </c>
       <c r="D14">
-        <v>0.05492268211563681</v>
+        <v>0.5554833793064679</v>
       </c>
       <c r="E14">
-        <v>0.7520550592688879</v>
+        <v>0.08414698692274653</v>
       </c>
       <c r="F14">
-        <v>0.07433117151286378</v>
+        <v>0.5033321467508669</v>
       </c>
       <c r="G14">
-        <v>0.4426543497987951</v>
+        <v>0.5003258983770053</v>
       </c>
       <c r="H14">
-        <v>0.532832716953426</v>
+        <v>0.6567990877917116</v>
       </c>
       <c r="I14">
-        <v>0.6613242052547258</v>
+        <v>-0.2320939179800661</v>
       </c>
       <c r="J14">
-        <v>-0.2450910230062252</v>
+        <v>0.5250397039375373</v>
       </c>
       <c r="K14">
-        <v>0.5297973106668776</v>
+        <v>0.2638965897873631</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +968,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1.382243236504047</v>
+        <v>0.7608053066871455</v>
       </c>
       <c r="C15">
-        <v>0.1020333843279952</v>
+        <v>0.6025940815188262</v>
       </c>
       <c r="D15">
-        <v>0.5117718284780797</v>
+        <v>-0.1561362438680617</v>
       </c>
       <c r="E15">
-        <v>0.1102762525787266</v>
+        <v>0.5392772278167297</v>
       </c>
       <c r="F15">
-        <v>0.4406035923592023</v>
+        <v>0.4982751409374124</v>
       </c>
       <c r="G15">
-        <v>0.4562644775173959</v>
+        <v>0.5802308483556813</v>
       </c>
       <c r="H15">
-        <v>0.6339248108794424</v>
+        <v>-0.2594933123553494</v>
       </c>
       <c r="I15">
-        <v>-0.2713800732039505</v>
+        <v>0.4987506537398119</v>
       </c>
       <c r="J15">
-        <v>0.4864000199535451</v>
-      </c>
-      <c r="K15">
-        <v>0.2305062539156956</v>
+        <v>0.2204992990740305</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,179 +1000,152 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.4143589712515336</v>
+        <v>0.9149196684423646</v>
       </c>
       <c r="C16">
-        <v>0.645060568213604</v>
+        <v>-0.02284750413253739</v>
       </c>
       <c r="D16">
-        <v>-0.06880216923746499</v>
+        <v>0.3601988060005381</v>
       </c>
       <c r="E16">
-        <v>0.4687978311297695</v>
+        <v>0.5264693797079796</v>
       </c>
       <c r="F16">
-        <v>0.4922897887097893</v>
+        <v>0.6162561595480749</v>
       </c>
       <c r="G16">
-        <v>0.5963832406752287</v>
+        <v>-0.2970348825595631</v>
       </c>
       <c r="H16">
-        <v>-0.2769224122913118</v>
+        <v>0.4932083146524507</v>
       </c>
       <c r="I16">
-        <v>0.4905753488922937</v>
-      </c>
-      <c r="J16">
-        <v>0.2193215401759246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.2246746280127792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.8806510593214452</v>
+        <v>0.2127429869753038</v>
       </c>
       <c r="C17">
-        <v>0.01587657163684458</v>
+        <v>0.4448775468748477</v>
       </c>
       <c r="D17">
-        <v>0.3231974644960524</v>
+        <v>0.3808690130742625</v>
       </c>
       <c r="E17">
-        <v>0.5022435315690319</v>
+        <v>0.6262099024073174</v>
       </c>
       <c r="F17">
-        <v>0.6117484103747737</v>
+        <v>-0.2816697128600181</v>
       </c>
       <c r="G17">
-        <v>-0.3157707472487348</v>
+        <v>0.4543599796950276</v>
       </c>
       <c r="H17">
-        <v>0.4747295398651078</v>
-      </c>
-      <c r="I17">
-        <v>0.2109873117084238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.2088288189855932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.3269007581182274</v>
+        <v>0.7559017333562305</v>
       </c>
       <c r="C18">
-        <v>0.4402862389072476</v>
+        <v>0.4979577874854577</v>
       </c>
       <c r="D18">
-        <v>0.3397793901194651</v>
+        <v>0.4637457609577506</v>
       </c>
       <c r="E18">
-        <v>0.6407073608399754</v>
+        <v>-0.2527107623948165</v>
       </c>
       <c r="F18">
-        <v>-0.2800278747938312</v>
+        <v>0.4901028521499312</v>
       </c>
       <c r="G18">
-        <v>0.4434018934814807</v>
-      </c>
-      <c r="H18">
-        <v>0.2077622620068982</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.1775011726019661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.687111416311362</v>
+        <v>0.7447829648895721</v>
       </c>
       <c r="C19">
-        <v>0.3574352576573546</v>
+        <v>0.4814016284956401</v>
       </c>
       <c r="D19">
-        <v>0.5460851217289808</v>
+        <v>-0.347333001505811</v>
       </c>
       <c r="E19">
-        <v>-0.2478104865453511</v>
+        <v>0.5223202403984113</v>
       </c>
       <c r="F19">
-        <v>0.455790019309198</v>
-      </c>
-      <c r="G19">
-        <v>0.1868984584576193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.1898892984296834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.5971116170735665</v>
+        <v>0.7210779879118521</v>
       </c>
       <c r="C20">
-        <v>0.6311093651981943</v>
+        <v>-0.2623087580365975</v>
       </c>
       <c r="D20">
-        <v>-0.3642950649033653</v>
+        <v>0.4058356620403972</v>
       </c>
       <c r="E20">
-        <v>0.4708952909610505</v>
-      </c>
-      <c r="F20">
-        <v>0.2101374940836094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.2049945700815359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.7959694422322816</v>
+        <v>-0.09744868100251025</v>
       </c>
       <c r="C21">
-        <v>-0.350757792655449</v>
+        <v>0.4193729342883134</v>
       </c>
       <c r="D21">
-        <v>0.4079223719710875</v>
-      </c>
-      <c r="E21">
-        <v>0.2201756597651073</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.1420216510915729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.09690875079004102</v>
+        <v>0.6732219761537215</v>
       </c>
       <c r="C22">
-        <v>0.5072404221531239</v>
-      </c>
-      <c r="D22">
-        <v>0.1085991175498651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.2413397012736094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.5513001133925729</v>
-      </c>
-      <c r="C23">
-        <v>0.130019622424466</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.2853993925130583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B24">
-        <v>0.3662627537369125</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AR2_50_9_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AR2_50_9_matched_errors_first.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>10.1225990960284</v>
+        <v>2.18989627706783</v>
       </c>
       <c r="C2">
-        <v>-7.750390181979499</v>
+        <v>10.16349548557</v>
       </c>
       <c r="D2">
-        <v>0.4625532265844802</v>
+        <v>-7.724356307055293</v>
       </c>
       <c r="E2">
-        <v>1.114035804318275</v>
+        <v>0.4743409654747825</v>
       </c>
       <c r="F2">
-        <v>-0.6809154673822229</v>
+        <v>1.119950557408814</v>
       </c>
       <c r="G2">
-        <v>-1.636980281981076</v>
+        <v>-0.6780455854739627</v>
       </c>
       <c r="H2">
-        <v>1.198145430806236</v>
+        <v>-1.635572794074753</v>
       </c>
       <c r="I2">
-        <v>-0.4702713277968628</v>
+        <v>1.198833335909301</v>
       </c>
       <c r="J2">
-        <v>0.550237693327104</v>
+        <v>-0.4699347444161387</v>
       </c>
       <c r="K2">
-        <v>-1.163387135999541</v>
+        <v>0.5504023208997705</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-8.665941479929575</v>
+        <v>9.247944187619927</v>
       </c>
       <c r="C3">
-        <v>-0.09288568806548997</v>
+        <v>-8.279795221705264</v>
       </c>
       <c r="D3">
-        <v>0.79511609412051</v>
+        <v>0.1554212552770169</v>
       </c>
       <c r="E3">
-        <v>-0.8901178518498177</v>
+        <v>0.9107481729412195</v>
       </c>
       <c r="F3">
-        <v>-1.790197713789883</v>
+        <v>-0.8312630172827695</v>
       </c>
       <c r="G3">
-        <v>1.072690561200211</v>
+        <v>-1.761027663680778</v>
       </c>
       <c r="H3">
-        <v>-0.5818437195903187</v>
+        <v>1.087260944115845</v>
       </c>
       <c r="I3">
-        <v>0.4455899393931738</v>
+        <v>-0.5745824983500689</v>
       </c>
       <c r="J3">
-        <v>-1.264578414563814</v>
+        <v>0.4492110423354971</v>
       </c>
       <c r="K3">
-        <v>1.565582411450561</v>
+        <v>-1.262772962148411</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-7.258115570652438</v>
+        <v>-15.44502510429221</v>
       </c>
       <c r="C4">
-        <v>-4.979538703426429</v>
+        <v>-5.619233542269922</v>
       </c>
       <c r="D4">
-        <v>-5.532175812781836</v>
+        <v>-3.731309787990799</v>
       </c>
       <c r="E4">
-        <v>-5.540725542422027</v>
+        <v>-4.581790845914914</v>
       </c>
       <c r="F4">
-        <v>-1.983394607614172</v>
+        <v>-4.817112832495161</v>
       </c>
       <c r="G4">
-        <v>-3.101548490755464</v>
+        <v>-1.4324438270493</v>
       </c>
       <c r="H4">
-        <v>-1.661888171553665</v>
+        <v>-2.682060609296908</v>
       </c>
       <c r="I4">
-        <v>-3.056284156481218</v>
+        <v>-1.342494699581906</v>
       </c>
       <c r="J4">
-        <v>0.01525390354836409</v>
+        <v>-2.813101470050608</v>
       </c>
       <c r="K4">
-        <v>-2.034922066113249</v>
+        <v>0.2004105337528701</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-3.299357556857204</v>
+        <v>-3.939052395700697</v>
       </c>
       <c r="C5">
-        <v>1.883868949726868</v>
+        <v>3.684734974517905</v>
       </c>
       <c r="D5">
-        <v>-3.292669226196934</v>
+        <v>-2.333734529689821</v>
       </c>
       <c r="E5">
-        <v>1.997966407575002</v>
+        <v>-0.835751817305987</v>
       </c>
       <c r="F5">
-        <v>-1.123366588845489</v>
+        <v>0.5457380748606747</v>
       </c>
       <c r="G5">
-        <v>0.7501180745166554</v>
+        <v>-0.2700543632265874</v>
       </c>
       <c r="H5">
-        <v>-1.466273777980254</v>
+        <v>0.2475156789190572</v>
       </c>
       <c r="I5">
-        <v>1.657826449858163</v>
+        <v>-1.170528923740809</v>
       </c>
       <c r="J5">
-        <v>-0.7515994264059269</v>
+        <v>1.483733173460192</v>
       </c>
       <c r="K5">
-        <v>0.7022009457793779</v>
+        <v>-0.6491341121382845</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1.843337576991127</v>
+        <v>-0.04247155220008958</v>
       </c>
       <c r="C6">
-        <v>-1.429798571433311</v>
+        <v>-0.470863874926198</v>
       </c>
       <c r="D6">
-        <v>1.237057483404022</v>
+        <v>-1.596660741476967</v>
       </c>
       <c r="E6">
-        <v>-0.5731355932232373</v>
+        <v>1.095969070482927</v>
       </c>
       <c r="F6">
-        <v>0.5028648335934157</v>
+        <v>-0.517307604149827</v>
       </c>
       <c r="G6">
-        <v>-1.205689637359233</v>
+        <v>0.5080998195400784</v>
       </c>
       <c r="H6">
-        <v>1.614045429628475</v>
+        <v>-1.214309943970497</v>
       </c>
       <c r="I6">
-        <v>-0.6199119289367258</v>
+        <v>1.615420670929393</v>
       </c>
       <c r="J6">
-        <v>0.73223086762307</v>
+        <v>-0.6191041902945924</v>
       </c>
       <c r="K6">
-        <v>0.1104179136903787</v>
+        <v>0.7318558435072805</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1.021566117811541</v>
+        <v>-0.062631421304428</v>
       </c>
       <c r="C7">
-        <v>1.488680527290416</v>
+        <v>-1.345037697590573</v>
       </c>
       <c r="D7">
-        <v>-0.6550416470463725</v>
+        <v>1.014063016659791</v>
       </c>
       <c r="E7">
-        <v>0.5779568829747013</v>
+        <v>-0.4422155547685414</v>
       </c>
       <c r="F7">
-        <v>-1.099782476845509</v>
+        <v>0.6140069800538022</v>
       </c>
       <c r="G7">
-        <v>1.67246207578713</v>
+        <v>-1.155893297811842</v>
       </c>
       <c r="H7">
-        <v>-0.5534732451066342</v>
+        <v>1.681859354759485</v>
       </c>
       <c r="I7">
-        <v>0.8069128262339065</v>
+        <v>-0.5444222316837559</v>
       </c>
       <c r="J7">
-        <v>0.1807312055913575</v>
+        <v>0.8021691354082593</v>
       </c>
       <c r="K7">
-        <v>0.6808125494453288</v>
+        <v>0.1802518522544978</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1.383181315441601</v>
+        <v>-1.450536909439388</v>
       </c>
       <c r="C8">
-        <v>-0.7811469310117304</v>
+        <v>0.8879577326944336</v>
       </c>
       <c r="D8">
-        <v>0.746204951607933</v>
+        <v>-0.2739674861353097</v>
       </c>
       <c r="E8">
-        <v>-1.039118384241627</v>
+        <v>0.6746710726576846</v>
       </c>
       <c r="F8">
-        <v>1.683594915161763</v>
+        <v>-1.144760458437209</v>
       </c>
       <c r="G8">
-        <v>-0.4906104937797037</v>
+        <v>1.744722106086416</v>
       </c>
       <c r="H8">
-        <v>0.8642643540276498</v>
+        <v>-0.4870707038900127</v>
       </c>
       <c r="I8">
-        <v>0.2252363825957365</v>
+        <v>0.8466743124126384</v>
       </c>
       <c r="J8">
-        <v>0.7318864204717475</v>
+        <v>0.2313257232809164</v>
       </c>
       <c r="K8">
-        <v>0.06620091605482592</v>
+        <v>0.7341089884009673</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1.385587550859469</v>
+        <v>0.2835171128466949</v>
       </c>
       <c r="C9">
-        <v>0.6820015742532396</v>
+        <v>-0.3381708634900031</v>
       </c>
       <c r="D9">
-        <v>-0.7475710761844102</v>
+        <v>0.9662183807149013</v>
       </c>
       <c r="E9">
-        <v>1.645888039075829</v>
+        <v>-1.182467334523142</v>
       </c>
       <c r="F9">
-        <v>-0.4991945138531648</v>
+        <v>1.736138086012954</v>
       </c>
       <c r="G9">
-        <v>0.948005431625018</v>
+        <v>-0.4033296262926443</v>
       </c>
       <c r="H9">
-        <v>0.2600635275237815</v>
+        <v>0.8815014573406833</v>
       </c>
       <c r="I9">
-        <v>0.7584508035240445</v>
+        <v>0.2578901063332134</v>
       </c>
       <c r="J9">
-        <v>0.1116997568014248</v>
+        <v>0.7796078291475662</v>
       </c>
       <c r="K9">
-        <v>0.5327578324921759</v>
+        <v>0.1037568572541728</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.5943607454143283</v>
+        <v>-0.4258116923289144</v>
       </c>
       <c r="C10">
-        <v>-0.7999902782140788</v>
+        <v>0.9137991786852327</v>
       </c>
       <c r="D10">
-        <v>1.704534436060835</v>
+        <v>-1.123820937538137</v>
       </c>
       <c r="E10">
-        <v>-0.4942653685160635</v>
+        <v>1.741067231350056</v>
       </c>
       <c r="F10">
-        <v>0.9369121485761228</v>
+        <v>-0.4144229093415396</v>
       </c>
       <c r="G10">
-        <v>0.272830226748868</v>
+        <v>0.8942681565657697</v>
       </c>
       <c r="H10">
-        <v>0.7671803625714035</v>
+        <v>0.2666196653805725</v>
       </c>
       <c r="I10">
-        <v>0.1142017009502766</v>
+        <v>0.782109773296418</v>
       </c>
       <c r="J10">
-        <v>0.539033769963857</v>
+        <v>0.1100327947258539</v>
       </c>
       <c r="K10">
-        <v>0.5940197511622507</v>
+        <v>0.5363482025840406</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.7775622985810702</v>
+        <v>0.9362271583182413</v>
       </c>
       <c r="C11">
-        <v>1.707137975623284</v>
+        <v>-1.121217397975688</v>
       </c>
       <c r="D11">
-        <v>-0.5163330541700787</v>
+        <v>1.718999545696041</v>
       </c>
       <c r="E11">
-        <v>0.9309301682717679</v>
+        <v>-0.4204048896458946</v>
       </c>
       <c r="F11">
-        <v>0.2674869765664569</v>
+        <v>0.8889249063833586</v>
       </c>
       <c r="G11">
-        <v>0.7568118292010373</v>
+        <v>0.2562511320102062</v>
       </c>
       <c r="H11">
-        <v>0.1057243788266528</v>
+        <v>0.7736324511727942</v>
       </c>
       <c r="I11">
-        <v>0.5312614616570462</v>
+        <v>0.1022604864190431</v>
       </c>
       <c r="J11">
-        <v>0.5853957776292821</v>
+        <v>0.527724229051072</v>
       </c>
       <c r="K11">
-        <v>0.7117978212943072</v>
+        <v>0.5878314504560218</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1.728562547080504</v>
+        <v>-1.099792826518468</v>
       </c>
       <c r="C12">
-        <v>-0.3961552053708663</v>
+        <v>1.839177394495253</v>
       </c>
       <c r="D12">
-        <v>0.8417358238579847</v>
+        <v>-0.5095992340596777</v>
       </c>
       <c r="E12">
-        <v>0.2377599727178791</v>
+        <v>0.8591979025347809</v>
       </c>
       <c r="F12">
-        <v>0.7654379492309473</v>
+        <v>0.2648772520401163</v>
       </c>
       <c r="G12">
-        <v>0.07978420540121761</v>
+        <v>0.747692277747359</v>
       </c>
       <c r="H12">
-        <v>0.5084828986288187</v>
+        <v>0.07948192339081561</v>
       </c>
       <c r="I12">
-        <v>0.5717777424806643</v>
+        <v>0.5141061939024542</v>
       </c>
       <c r="J12">
-        <v>0.6932770241091315</v>
+        <v>0.569310653270846</v>
       </c>
       <c r="K12">
-        <v>-0.2007560336349775</v>
+        <v>0.6926620895998143</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.4384758376912558</v>
+        <v>1.796856762174863</v>
       </c>
       <c r="C13">
-        <v>0.8125313500022515</v>
+        <v>-0.5388037079154109</v>
       </c>
       <c r="D13">
-        <v>0.2347393729129579</v>
+        <v>0.8561773027298597</v>
       </c>
       <c r="E13">
-        <v>0.7465766656194669</v>
+        <v>0.2460159684286359</v>
       </c>
       <c r="F13">
-        <v>0.05945307433601332</v>
+        <v>0.7273611466821548</v>
       </c>
       <c r="G13">
-        <v>0.4939527431945709</v>
+        <v>0.06495176795656782</v>
       </c>
       <c r="H13">
-        <v>0.5551366969883963</v>
+        <v>0.4974651484101862</v>
       </c>
       <c r="I13">
-        <v>0.6756931786803813</v>
+        <v>0.5517268078420958</v>
       </c>
       <c r="J13">
-        <v>-0.2172299171650203</v>
+        <v>0.6761882060697715</v>
       </c>
       <c r="K13">
-        <v>0.553751414566908</v>
+        <v>-0.2163793123768544</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.152729090620161</v>
+        <v>-0.1986059672975008</v>
       </c>
       <c r="C14">
-        <v>0.310110434696895</v>
+        <v>0.9315483645137967</v>
       </c>
       <c r="D14">
-        <v>0.5554833793064679</v>
+        <v>0.05492268211563681</v>
       </c>
       <c r="E14">
-        <v>0.08414698692274653</v>
+        <v>0.7520550592688879</v>
       </c>
       <c r="F14">
-        <v>0.5033321467508669</v>
+        <v>0.07433117151286378</v>
       </c>
       <c r="G14">
-        <v>0.5003258983770053</v>
+        <v>0.4426543497987951</v>
       </c>
       <c r="H14">
-        <v>0.6567990877917116</v>
+        <v>0.532832716953426</v>
       </c>
       <c r="I14">
-        <v>-0.2320939179800661</v>
+        <v>0.6613242052547258</v>
       </c>
       <c r="J14">
-        <v>0.5250397039375373</v>
+        <v>-0.2450910230062252</v>
       </c>
       <c r="K14">
-        <v>0.2638965897873631</v>
+        <v>0.5297973106668776</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,31 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.7608053066871455</v>
+        <v>1.382243236504047</v>
       </c>
       <c r="C15">
-        <v>0.6025940815188262</v>
+        <v>0.1020333843279952</v>
       </c>
       <c r="D15">
-        <v>-0.1561362438680617</v>
+        <v>0.5117718284780797</v>
       </c>
       <c r="E15">
-        <v>0.5392772278167297</v>
+        <v>0.1102762525787266</v>
       </c>
       <c r="F15">
-        <v>0.4982751409374124</v>
+        <v>0.4406035923592023</v>
       </c>
       <c r="G15">
-        <v>0.5802308483556813</v>
+        <v>0.4562644775173959</v>
       </c>
       <c r="H15">
-        <v>-0.2594933123553494</v>
+        <v>0.6339248108794424</v>
       </c>
       <c r="I15">
-        <v>0.4987506537398119</v>
+        <v>-0.2713800732039505</v>
       </c>
       <c r="J15">
-        <v>0.2204992990740305</v>
+        <v>0.4864000199535451</v>
+      </c>
+      <c r="K15">
+        <v>0.2305062539156956</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1000,152 +1003,179 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.9149196684423646</v>
+        <v>0.4143589712515336</v>
       </c>
       <c r="C16">
-        <v>-0.02284750413253739</v>
+        <v>0.645060568213604</v>
       </c>
       <c r="D16">
-        <v>0.3601988060005381</v>
+        <v>-0.06880216923746499</v>
       </c>
       <c r="E16">
-        <v>0.5264693797079796</v>
+        <v>0.4687978311297695</v>
       </c>
       <c r="F16">
-        <v>0.6162561595480749</v>
+        <v>0.4922897887097893</v>
       </c>
       <c r="G16">
-        <v>-0.2970348825595631</v>
+        <v>0.5963832406752287</v>
       </c>
       <c r="H16">
-        <v>0.4932083146524507</v>
+        <v>-0.2769224122913118</v>
       </c>
       <c r="I16">
-        <v>0.2246746280127792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.4905753488922937</v>
+      </c>
+      <c r="J16">
+        <v>0.2193215401759246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.2127429869753038</v>
+        <v>0.8806510593214452</v>
       </c>
       <c r="C17">
-        <v>0.4448775468748477</v>
+        <v>0.01587657163684458</v>
       </c>
       <c r="D17">
-        <v>0.3808690130742625</v>
+        <v>0.3231974644960524</v>
       </c>
       <c r="E17">
-        <v>0.6262099024073174</v>
+        <v>0.5022435315690319</v>
       </c>
       <c r="F17">
-        <v>-0.2816697128600181</v>
+        <v>0.6117484103747737</v>
       </c>
       <c r="G17">
-        <v>0.4543599796950276</v>
+        <v>-0.3157707472487348</v>
       </c>
       <c r="H17">
-        <v>0.2088288189855932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.4747295398651078</v>
+      </c>
+      <c r="I17">
+        <v>0.2109873117084238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.7559017333562305</v>
+        <v>0.3269007581182274</v>
       </c>
       <c r="C18">
-        <v>0.4979577874854577</v>
+        <v>0.4402862389072476</v>
       </c>
       <c r="D18">
-        <v>0.4637457609577506</v>
+        <v>0.3397793901194651</v>
       </c>
       <c r="E18">
-        <v>-0.2527107623948165</v>
+        <v>0.6407073608399754</v>
       </c>
       <c r="F18">
-        <v>0.4901028521499312</v>
+        <v>-0.2800278747938312</v>
       </c>
       <c r="G18">
-        <v>0.1775011726019661</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.4434018934814807</v>
+      </c>
+      <c r="H18">
+        <v>0.2077622620068982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.7447829648895721</v>
+        <v>0.687111416311362</v>
       </c>
       <c r="C19">
-        <v>0.4814016284956401</v>
+        <v>0.3574352576573546</v>
       </c>
       <c r="D19">
-        <v>-0.347333001505811</v>
+        <v>0.5460851217289808</v>
       </c>
       <c r="E19">
-        <v>0.5223202403984113</v>
+        <v>-0.2478104865453511</v>
       </c>
       <c r="F19">
-        <v>0.1898892984296834</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.455790019309198</v>
+      </c>
+      <c r="G19">
+        <v>0.1868984584576193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.7210779879118521</v>
+        <v>0.5971116170735665</v>
       </c>
       <c r="C20">
-        <v>-0.2623087580365975</v>
+        <v>0.6311093651981943</v>
       </c>
       <c r="D20">
-        <v>0.4058356620403972</v>
+        <v>-0.3642950649033653</v>
       </c>
       <c r="E20">
-        <v>0.2049945700815359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.4708952909610505</v>
+      </c>
+      <c r="F20">
+        <v>0.2101374940836094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.09744868100251025</v>
+        <v>0.7959694422322816</v>
       </c>
       <c r="C21">
-        <v>0.4193729342883134</v>
+        <v>-0.350757792655449</v>
       </c>
       <c r="D21">
-        <v>0.1420216510915729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.4079223719710875</v>
+      </c>
+      <c r="E21">
+        <v>0.2201756597651073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.6732219761537215</v>
+        <v>-0.09690875079004102</v>
       </c>
       <c r="C22">
-        <v>0.2413397012736094</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.5072404221531239</v>
+      </c>
+      <c r="D22">
+        <v>0.1085991175498651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.2853993925130583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.5513001133925729</v>
+      </c>
+      <c r="C23">
+        <v>0.130019622424466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.3662627537369125</v>
       </c>
     </row>
   </sheetData>
